--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>850744.959535692</v>
+        <v>888454.9608210449</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982516</v>
+        <v>335414.3901624709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043315</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8315080.369423971</v>
+        <v>7992412.720658096</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.05760276447</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>124.2600543520741</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -744,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.0854560904541</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>132.5008957477112</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>51.96190712986807</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839138</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871606</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>99.51985280938192</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.7569470849743</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.203367682519216</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>110.2883253154788</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>20.85732126240478</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>40.51412635613359</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5.632598604764183</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -1427,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>323.1114247414006</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>353.5759586385886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553082</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250817</v>
@@ -1503,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755684</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>134.6751203255738</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.8509874798057</v>
+        <v>221.8199080766638</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553082</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255738</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>70.48229356082352</v>
+        <v>184.2339528584294</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1974,7 +1976,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984493</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
         <v>225.8879277888686</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2198021316253</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364063</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>221.002178698297</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>314.6757550035603</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>95.33023562355994</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>234.3107022885814</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228957</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>305.8592206896404</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>22.28704139029321</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>156.1271626621476</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.808968459387232</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>12.27152410635523</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2725,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.5840649587253</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>157.9610008998253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>167.1138608531443</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>306.8133326045282</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>223.1498336210767</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>30.47308965960353</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>136.1286387281323</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>221.8199080766632</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>323.9918595228955</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>303.5313813159055</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>94.63926978364054</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>47.40419526769258</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>130.1024780662198</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3803,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>7.270565549321639</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>27.44707554504469</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>85.35239292158276</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.19784761800408</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>25.19784761800408</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>25.19784761800408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>25.19784761800408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>25.19784761800408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573685</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142367</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098032</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369341</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885156</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415475</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>781.940199325311</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>556.9999364092509</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>556.9999364092509</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>556.9999364092509</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>556.9999364092509</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>291.0988920136275</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.19784761800408</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613337</v>
+        <v>426.903709034957</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613337</v>
+        <v>426.903709034957</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613337</v>
+        <v>426.903709034957</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613337</v>
+        <v>267.6662540295015</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613337</v>
+        <v>121.1316960563865</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613337</v>
+        <v>121.1316960563865</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613337</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613337</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>24.95018035683224</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>285.5597939689827</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565297</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271207</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806669</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806669</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>919.1288471726169</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>690.9085184148217</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>690.9085184148217</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W3" t="n">
-        <v>436.6711616866201</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8196614810873</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.05936271613337</v>
+        <v>426.903709034957</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>130.0221525919995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423041</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360313</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955242</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486502</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706541</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706541</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1104.626054809422</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C5" t="n">
-        <v>825.6800813726992</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="D5" t="n">
-        <v>546.7341079359765</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="E5" t="n">
-        <v>267.7881344992537</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="F5" t="n">
-        <v>267.7881344992537</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G5" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618846</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438684</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412869</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173957</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823544</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901066</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U5" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V5" t="n">
-        <v>1104.626054809422</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="W5" t="n">
-        <v>1104.626054809422</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>1104.626054809422</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y5" t="n">
-        <v>1104.626054809422</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.09252109618844</v>
+        <v>120.0901224367519</v>
       </c>
       <c r="C6" t="n">
-        <v>22.09252109618844</v>
+        <v>120.0901224367519</v>
       </c>
       <c r="D6" t="n">
-        <v>22.09252109618844</v>
+        <v>120.0901224367519</v>
       </c>
       <c r="E6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>28.39914141318535</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>165.799003153448</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>411.954469746149</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>641.2451212288496</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="N6" t="n">
-        <v>641.2451212288496</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>907.7419348121334</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>927.0937850266196</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U6" t="n">
-        <v>927.0937850266196</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V6" t="n">
-        <v>691.9416767948769</v>
+        <v>743.0988212128268</v>
       </c>
       <c r="W6" t="n">
-        <v>437.7043200666752</v>
+        <v>496.0657582217739</v>
       </c>
       <c r="X6" t="n">
-        <v>229.8528198611424</v>
+        <v>496.0657582217739</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.09252109618844</v>
+        <v>288.30545945682</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="G7" t="n">
-        <v>29.36865006843007</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="H7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492715</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160687</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754623</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.1194880117303</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="C8" t="n">
-        <v>962.1194880117303</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="D8" t="n">
-        <v>962.1194880117303</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="E8" t="n">
-        <v>576.331235413486</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="F8" t="n">
-        <v>165.3453306238784</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="G8" t="n">
-        <v>165.3453306238784</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="H8" t="n">
-        <v>165.3453306238784</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051664</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.719328075852</v>
+        <v>1031.90013453151</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>884.7527987865983</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>710.2997695054713</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>561.3653598442201</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>402.1279048387646</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>786.7729354759944</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>1047.185999568486</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>903.5661947296837</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C11" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D11" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E11" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F11" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
         <v>534.603677789272</v>
@@ -5036,7 +5038,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533143</v>
@@ -5066,7 +5068,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T11" t="n">
         <v>2247.308246834949</v>
@@ -5075,16 +5077,16 @@
         <v>1993.546461473041</v>
       </c>
       <c r="V11" t="n">
-        <v>1667.171284966575</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W11" t="n">
-        <v>1667.171284966575</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>1293.705526705495</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="Y11" t="n">
-        <v>903.5661947296837</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641995</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5151,19 +5153,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V12" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F13" t="n">
         <v>562.6765899837193</v>
@@ -5194,10 +5196,10 @@
         <v>235.9284171545818</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064346</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2307.009759042412</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C14" t="n">
-        <v>1938.047242102</v>
+        <v>1116.929889604774</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.781543495249</v>
+        <v>758.6641909980233</v>
       </c>
       <c r="E14" t="n">
-        <v>1193.993290897005</v>
+        <v>758.6641909980233</v>
       </c>
       <c r="F14" t="n">
-        <v>783.0073861073977</v>
+        <v>758.6641909980233</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733132</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
         <v>1836.345445977175</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018223</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042412</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5388,16 +5390,16 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237152</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600565</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600565</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600565</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1238.153685885795</v>
+        <v>1353.054351842972</v>
       </c>
       <c r="C17" t="n">
-        <v>869.191168945383</v>
+        <v>984.0918349025605</v>
       </c>
       <c r="D17" t="n">
-        <v>510.9254703386325</v>
+        <v>625.8261362958101</v>
       </c>
       <c r="E17" t="n">
-        <v>125.1372177403882</v>
+        <v>240.0378836975659</v>
       </c>
       <c r="F17" t="n">
-        <v>125.1372177403882</v>
+        <v>240.0378836975659</v>
       </c>
       <c r="G17" t="n">
-        <v>125.1372177403882</v>
+        <v>240.0378836975659</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733132</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224082</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
         <v>2544.691559791253</v>
@@ -5543,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186808</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V17" t="n">
-        <v>2388.358616186808</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.358616186808</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.892857925728</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="Y17" t="n">
-        <v>1624.753525949916</v>
+        <v>1739.654191907094</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5585,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>332.1920961943575</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>163.2559132664506</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U19" t="n">
-        <v>513.8405610245973</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V19" t="n">
-        <v>513.8405610245973</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W19" t="n">
-        <v>513.8405610245973</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X19" t="n">
-        <v>513.8405610245973</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>513.8405610245973</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247703</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="C20" t="n">
-        <v>1491.915471247703</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="D20" t="n">
-        <v>1491.915471247703</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.127218649459</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F20" t="n">
-        <v>695.1413138598514</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G20" t="n">
-        <v>277.1775057580383</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036447</v>
@@ -5777,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287637</v>
+        <v>936.2491605982766</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311825</v>
+        <v>618.3948626148824</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5843,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.5995062532301</v>
+        <v>319.1723320447966</v>
       </c>
       <c r="C22" t="n">
-        <v>99.5995062532301</v>
+        <v>150.2361491168897</v>
       </c>
       <c r="D22" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E22" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F22" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G22" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H22" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I22" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036447</v>
@@ -5929,31 +5931,31 @@
         <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>336.2769833124032</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>336.2769833124032</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U22" t="n">
-        <v>336.2769833124032</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V22" t="n">
-        <v>336.2769833124032</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="W22" t="n">
-        <v>99.5995062532301</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="X22" t="n">
-        <v>99.5995062532301</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.5995062532301</v>
+        <v>500.8207968750363</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>780.8554976894911</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776798</v>
+        <v>780.8554976894911</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776798</v>
+        <v>780.8554976894911</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785536</v>
+        <v>780.8554976894911</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889461</v>
+        <v>780.8554976894911</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>362.891689587678</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6002,7 +6004,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P23" t="n">
         <v>2544.691559791253</v>
@@ -6017,22 +6019,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628378</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>1893.689751284807</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>1540.921096014693</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1167.455337753613</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.455337753613</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M24" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>76.45514484086266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005476</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W25" t="n">
-        <v>473.4444960005476</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.7171392082163</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C26" t="n">
-        <v>850.7171392082163</v>
+        <v>1215.86058373354</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082163</v>
+        <v>857.5948851267892</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>471.806632528545</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>60.82072773893742</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>60.82072773893742</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>60.82072773893742</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2684.753612122915</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2684.753612122915</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2353.690724779344</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>2000.92206950923</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X26" t="n">
-        <v>1627.45631124815</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1237.316979272338</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.59950625323012</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C28" t="n">
-        <v>99.59950625323012</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="D28" t="n">
-        <v>99.59950625323012</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="E28" t="n">
-        <v>99.59950625323012</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="F28" t="n">
-        <v>99.59950625323012</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="G28" t="n">
-        <v>99.59950625323012</v>
+        <v>338.3366048012367</v>
       </c>
       <c r="H28" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036446</v>
@@ -6409,25 +6411,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.59950625323012</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1019.519018857857</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C29" t="n">
-        <v>1019.519018857857</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036446</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2169.72394915887</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>2169.72394915887</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X29" t="n">
-        <v>1796.25819089779</v>
+        <v>1231.008638838401</v>
       </c>
       <c r="Y29" t="n">
-        <v>1406.118858921979</v>
+        <v>840.8693068625894</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6658,10 +6660,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>2471.745218673701</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X31" t="n">
-        <v>2243.755667775683</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y31" t="n">
         <v>2022.963088632153</v>
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1139.146815977588</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C32" t="n">
-        <v>770.1842990371763</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>411.9186004304258</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>411.9186004304258</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>411.9186004304258</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9186004304258</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>84.72388046642862</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,10 +6718,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6737,13 +6739,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.885988017521</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1525.74665604171</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6774,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>2153.290992466904</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>590.6253087234725</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1219.679656148628</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C35" t="n">
-        <v>850.7171392082163</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082163</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
@@ -6953,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W35" t="n">
-        <v>2369.884586449642</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X35" t="n">
-        <v>1996.418828188562</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y35" t="n">
-        <v>1606.27949621275</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7129,16 +7131,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1626.94664591678</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036446</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="W38" t="n">
-        <v>2390.551736153672</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="X38" t="n">
-        <v>2017.085977892592</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1626.94664591678</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7265,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7315,10 +7317,10 @@
         <v>149.5382038240418</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036446</v>
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>554.3221432721093</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C41" t="n">
-        <v>185.3596263316976</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D41" t="n">
-        <v>185.3596263316976</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E41" t="n">
-        <v>185.3596263316976</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F41" t="n">
-        <v>185.3596263316976</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G41" t="n">
-        <v>185.3596263316976</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>185.3596263316976</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036446</v>
@@ -7436,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843237</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573123</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X41" t="n">
-        <v>1331.061315312043</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y41" t="n">
-        <v>940.9219833362311</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
         <v>505.8730812692495</v>
@@ -7503,10 +7505,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>61.28698742573985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036446</v>
@@ -7597,22 +7599,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750362</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750362</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1241.158393318536</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>1241.158393318536</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117852</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.336936304456</v>
+        <v>2614.396082816348</v>
       </c>
       <c r="U44" t="n">
-        <v>2048.575150942547</v>
+        <v>2614.396082816348</v>
       </c>
       <c r="V44" t="n">
-        <v>1717.512263598976</v>
+        <v>2283.333195472777</v>
       </c>
       <c r="W44" t="n">
-        <v>1717.512263598976</v>
+        <v>1930.564540202663</v>
       </c>
       <c r="X44" t="n">
-        <v>1631.297725294347</v>
+        <v>1557.098781941583</v>
       </c>
       <c r="Y44" t="n">
-        <v>1241.158393318536</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236086</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429918</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.833774309385</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>360.228914043839</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>354.6541654994895</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>361.9899941110493</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>130.3625277915346</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8771,10 @@
         <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719083</v>
       </c>
       <c r="L12" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747164</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951785</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451762</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747164</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>82.65180434783873</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268019</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.9959047043864</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22632,19 +22634,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>12.14998814604233</v>
       </c>
       <c r="I3" t="n">
-        <v>87.6923398882896</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.0844620270375</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>67.4643112613636</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22686,10 +22688,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>102.2405633723427</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598912</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366963</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908972</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>89.11637806865207</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D5" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>171.9232912582848</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3414038064408</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>58.12522764601903</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>24.10415388719753</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>154.462316415358</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>18.16967748427751</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>41.64299092938245</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>186.054537437508</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23109,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>104.5550860372503</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>156.2256052425495</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>4.640833728734265</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>16.15514203988045</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>11.990071654584</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>15.93318254098932</v>
+        <v>191.9642619441312</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735742</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801578</v>
@@ -23707,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23747,7 +23749,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>253.4404792035336</v>
+        <v>139.6888199059278</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448612</v>
@@ -23783,22 +23785,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>40.39567088658707</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23938,19 +23940,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>102.9205940660601</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>71.56218365249333</v>
       </c>
     </row>
     <row r="21">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>53.28523739465241</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>52.21229604800965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789928</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>18.06355207471677</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>133.8838474515019</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787132</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>145.122347785474</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>204.1767962513026</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>9.586823883069854</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>128.3208733421524</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>187.5691807675387</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24737,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>62.91776807394086</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>63.37316471551432</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>121.4582265852577</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25129,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>89.58101666090482</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>160.9139335868173</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>25.24910919451753</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25369,13 +25371,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>27.53450764830092</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>45.70958740150746</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25555,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>51.79469286292863</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>335.329646395788</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,10 +25645,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>21.82883817864143</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>139.1633970972475</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>189.0012448126131</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>284.3787077568863</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>467445.7869376004</v>
+        <v>448752.9057247415</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477458.0775964576</v>
+        <v>451773.1829701429</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>769512.6051115738</v>
+        <v>467445.7869376</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115739</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115739</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769512.6051115739</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115735</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156006.1355264979</v>
+        <v>149544.6052781992</v>
       </c>
       <c r="C2" t="n">
-        <v>159463.6497950859</v>
+        <v>150588.1755146547</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141816</v>
+        <v>156006.1355264978</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141817</v>
@@ -26326,34 +26328,34 @@
         <v>260237.3490141817</v>
       </c>
       <c r="G2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="H2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="H2" t="n">
-        <v>260237.3490141818</v>
-      </c>
       <c r="I2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="J2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="J2" t="n">
-        <v>260237.3490141818</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
+        <v>260237.3490141818</v>
+      </c>
+      <c r="M2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="M2" t="n">
-        <v>260237.3490141816</v>
-      </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749502</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438874</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.622153688</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835746</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873125</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.77382447515</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>16914.68964098084</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16922.92270143587</v>
+      </c>
+      <c r="D4" t="n">
         <v>16958.01308307726</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16991.84893966586</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683338</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>51181.37951678014</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="F5" t="n">
         <v>49231.47806340948</v>
       </c>
-      <c r="F5" t="n">
-        <v>49231.47806340949</v>
-      </c>
       <c r="G5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340949</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26497,10 +26499,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340947</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21480.7398383629</v>
+        <v>3579.215341908923</v>
       </c>
       <c r="C6" t="n">
-        <v>76183.73375425112</v>
+        <v>80596.32350583529</v>
       </c>
       <c r="D6" t="n">
-        <v>-258034.2787725792</v>
+        <v>66548.72807905191</v>
       </c>
       <c r="E6" t="n">
-        <v>192776.943381109</v>
+        <v>-214943.4943024657</v>
       </c>
       <c r="F6" t="n">
-        <v>192776.943381109</v>
+        <v>192776.9433811089</v>
       </c>
       <c r="G6" t="n">
-        <v>192776.943381109</v>
+        <v>192776.9433811088</v>
       </c>
       <c r="H6" t="n">
         <v>192776.943381109</v>
@@ -26543,25 +26545,25 @@
         <v>192776.9433811089</v>
       </c>
       <c r="J6" t="n">
-        <v>123901.244649859</v>
+        <v>129717.0007820027</v>
       </c>
       <c r="K6" t="n">
-        <v>189453.1695566338</v>
+        <v>191863.6875786518</v>
       </c>
       <c r="L6" t="n">
-        <v>92013.63144182865</v>
+        <v>188049.3802622617</v>
       </c>
       <c r="M6" t="n">
-        <v>192776.9433811089</v>
+        <v>90342.82569047376</v>
       </c>
       <c r="N6" t="n">
-        <v>192776.9433811089</v>
+        <v>192776.943381109</v>
       </c>
       <c r="O6" t="n">
-        <v>192776.9433811089</v>
+        <v>192776.943381109</v>
       </c>
       <c r="P6" t="n">
-        <v>192776.9433811089</v>
+        <v>192776.943381109</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678986</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912534</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170868</v>
@@ -26756,7 +26758,7 @@
         <v>377.7436642170868</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="J3" t="n">
         <v>377.7436642170867</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
+        <v>263.2420339516666</v>
+      </c>
+      <c r="E4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="F4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545558</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545558</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -26817,10 +26819,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678986</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233548</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979614</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302974</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068832</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.0452388028892</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068832</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068832</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028892</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367775</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887899</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.56672738103504</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760526</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324521</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455514</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895192</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019349</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841755</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.303932450608</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214545037</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679652</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332559</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318495</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294218</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498196</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104837</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125476</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246607</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750399</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430047</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418822</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104047</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523179</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.31869329921068</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605635</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705524055</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467912</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564604</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994892</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259097</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047555</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281388</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166792</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471498</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.50524192898881</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815848097</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150964</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037132002</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705268</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473157</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588726</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815398</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4418552214663</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>5.42776745276012</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884599</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>22.21755819470702</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677233</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840334</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081218</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411507</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796963</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587038</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847513</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.616303794162698</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727679</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335885</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358773</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192331</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833409</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689049</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650263</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164377</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263571</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504676</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227322</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174389</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170847</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894685</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>9.89953440294882</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394052</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179687</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938414</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587926</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>2.839592713390063</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025627</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32713,34 +32715,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M23" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P23" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,40 +32779,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I24" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P24" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
@@ -32819,7 +32821,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,25 +32882,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194294</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150183</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945117</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455867</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894762</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668211</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988751</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516672</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.761452714694</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833256</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031301</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903826</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178763</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>46.0891188908294</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507669</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919064</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>2.29774030202549</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503282</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>231.6067186693945</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>232.7035310438139</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721082</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062265</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421936</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>5.840541654727375</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L12" t="n">
-        <v>365.2844632307151</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262939</v>
@@ -35726,7 +35728,7 @@
         <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713858</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713858</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>439.883913335513</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,22 +36363,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M23" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P23" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36528,10 +36530,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
